--- a/Pulseprogramer/ver2/pulsedata.xlsx
+++ b/Pulseprogramer/ver2/pulsedata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="640" yWindow="960" windowWidth="27900" windowHeight="16540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="900" yWindow="9180" windowWidth="27900" windowHeight="16540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -126,7 +126,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -164,9 +164,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -493,8 +490,8 @@
   </sheetPr>
   <dimension ref="A1:AL28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -637,23 +634,23 @@
       <c r="AL2" s="3" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="inlineStr">
+      <c r="A3" s="13" t="inlineStr">
         <is>
           <t>sc1(start count)</t>
         </is>
       </c>
-      <c r="B3" s="14" t="inlineStr">
+      <c r="B3" s="13" t="inlineStr">
         <is>
           <t>bc1(between count)</t>
         </is>
       </c>
-      <c r="C3" s="18" t="inlineStr">
+      <c r="C3" s="17" t="inlineStr">
         <is>
           <t>ec1(end count)</t>
         </is>
       </c>
-      <c r="D3" s="17" t="n"/>
-      <c r="E3" s="16" t="inlineStr">
+      <c r="D3" s="16" t="n"/>
+      <c r="E3" s="15" t="inlineStr">
         <is>
           <t>sc2</t>
         </is>
@@ -663,13 +660,13 @@
           <t>bc2</t>
         </is>
       </c>
-      <c r="G3" s="15" t="inlineStr">
+      <c r="G3" s="14" t="inlineStr">
         <is>
           <t>ec2</t>
         </is>
       </c>
-      <c r="H3" s="17" t="n"/>
-      <c r="I3" s="16" t="inlineStr">
+      <c r="H3" s="16" t="n"/>
+      <c r="I3" s="15" t="inlineStr">
         <is>
           <t>sc3</t>
         </is>
@@ -695,13 +692,13 @@
           <t>bc1</t>
         </is>
       </c>
-      <c r="O3" s="15" t="inlineStr">
+      <c r="O3" s="14" t="inlineStr">
         <is>
           <t>ec1</t>
         </is>
       </c>
-      <c r="P3" s="17" t="n"/>
-      <c r="Q3" s="16" t="inlineStr">
+      <c r="P3" s="16" t="n"/>
+      <c r="Q3" s="15" t="inlineStr">
         <is>
           <t>sc2</t>
         </is>
@@ -711,13 +708,13 @@
           <t>bc2</t>
         </is>
       </c>
-      <c r="S3" s="15" t="inlineStr">
+      <c r="S3" s="14" t="inlineStr">
         <is>
           <t>ec2</t>
         </is>
       </c>
-      <c r="T3" s="17" t="n"/>
-      <c r="U3" s="16" t="inlineStr">
+      <c r="T3" s="16" t="n"/>
+      <c r="U3" s="15" t="inlineStr">
         <is>
           <t>sc3</t>
         </is>
@@ -748,7 +745,7 @@
           <t>p [°]</t>
         </is>
       </c>
-      <c r="AB3" s="14" t="inlineStr">
+      <c r="AB3" s="13" t="inlineStr">
         <is>
           <t>6*REFCLK (ON:1 OFF:0)</t>
         </is>
@@ -763,8 +760,8 @@
           <t>type</t>
         </is>
       </c>
-      <c r="AE3" s="17" t="n"/>
-      <c r="AF3" s="17" t="n"/>
+      <c r="AE3" s="16" t="n"/>
+      <c r="AF3" s="16" t="n"/>
       <c r="AG3" s="8" t="inlineStr">
         <is>
           <t>sc2</t>
@@ -780,7 +777,7 @@
           <t>p [°]</t>
         </is>
       </c>
-      <c r="AJ3" s="14" t="inlineStr">
+      <c r="AJ3" s="13" t="inlineStr">
         <is>
           <t>6*REFCLK (ON:1 OFF:0)</t>
         </is>
@@ -803,21 +800,21 @@
       <c r="B4" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="n">
+      <c r="C4" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="17" t="n"/>
-      <c r="E4" s="16" t="n">
+      <c r="D4" s="16" t="n"/>
+      <c r="E4" s="15" t="n">
         <v>3</v>
       </c>
       <c r="F4" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="15" t="n">
+      <c r="G4" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="H4" s="17" t="n"/>
-      <c r="I4" s="16" t="n">
+      <c r="H4" s="16" t="n"/>
+      <c r="I4" s="15" t="n">
         <v>3</v>
       </c>
       <c r="J4" s="8" t="n">
@@ -833,21 +830,21 @@
       <c r="N4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="O4" s="15" t="n">
+      <c r="O4" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="P4" s="17" t="n"/>
-      <c r="Q4" s="16" t="n">
+      <c r="P4" s="16" t="n"/>
+      <c r="Q4" s="15" t="n">
         <v>20</v>
       </c>
       <c r="R4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="S4" s="15" t="n">
+      <c r="S4" s="14" t="n">
         <v>21</v>
       </c>
-      <c r="T4" s="17" t="n"/>
-      <c r="U4" s="16" t="n">
+      <c r="T4" s="16" t="n"/>
+      <c r="U4" s="15" t="n">
         <v>20</v>
       </c>
       <c r="V4" s="8" t="n">
@@ -879,8 +876,8 @@
           <t>A</t>
         </is>
       </c>
-      <c r="AE4" s="17" t="n"/>
-      <c r="AF4" s="17" t="n"/>
+      <c r="AE4" s="16" t="n"/>
+      <c r="AF4" s="16" t="n"/>
       <c r="AG4" s="8" t="n">
         <v>20</v>
       </c>
@@ -911,21 +908,21 @@
       <c r="B5" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="15" t="n">
+      <c r="C5" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="D5" s="17" t="n"/>
-      <c r="E5" s="16" t="n">
+      <c r="D5" s="16" t="n"/>
+      <c r="E5" s="15" t="n">
         <v>7</v>
       </c>
       <c r="F5" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="15" t="n">
+      <c r="G5" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="H5" s="17" t="n"/>
-      <c r="I5" s="16" t="n">
+      <c r="H5" s="16" t="n"/>
+      <c r="I5" s="15" t="n">
         <v>7</v>
       </c>
       <c r="J5" s="8" t="n">
@@ -937,19 +934,19 @@
       <c r="L5" s="1" t="n"/>
       <c r="M5" s="8" t="n"/>
       <c r="N5" s="8" t="n"/>
-      <c r="O5" s="15" t="n"/>
-      <c r="P5" s="17" t="n"/>
-      <c r="Q5" s="16" t="n">
+      <c r="O5" s="14" t="n"/>
+      <c r="P5" s="16" t="n"/>
+      <c r="Q5" s="15" t="n">
         <v>7</v>
       </c>
       <c r="R5" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="S5" s="15" t="n">
+      <c r="S5" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="T5" s="17" t="n"/>
-      <c r="U5" s="16" t="n">
+      <c r="T5" s="16" t="n"/>
+      <c r="U5" s="15" t="n">
         <v>7</v>
       </c>
       <c r="V5" s="8" t="n">
@@ -981,8 +978,8 @@
           <t>B</t>
         </is>
       </c>
-      <c r="AE5" s="17" t="n"/>
-      <c r="AF5" s="17" t="n"/>
+      <c r="AE5" s="16" t="n"/>
+      <c r="AF5" s="16" t="n"/>
       <c r="AG5" s="8" t="n">
         <v>80</v>
       </c>

--- a/Pulseprogramer/ver2/pulsedata.xlsx
+++ b/Pulseprogramer/ver2/pulsedata.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yokooannosuke/Cording/Pine64-python--pulse/Pulseprogramer/ver2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906632CC-5FF9-484A-BF2B-9EBE82E99890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E2F195-E753-6248-BCB1-1289EB48B02C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
-  <si>
-    <t>RFパラメータ</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+  <si>
+    <t>PLパラメータ</t>
   </si>
   <si>
     <t>ADパラメータ</t>
@@ -31,13 +32,13 @@
     <t>DDSパラメータ</t>
   </si>
   <si>
-    <t>RF1</t>
-  </si>
-  <si>
-    <t>RF2</t>
-  </si>
-  <si>
-    <t>RF3</t>
+    <t>PL1</t>
+  </si>
+  <si>
+    <t>PL2</t>
+  </si>
+  <si>
+    <t>PL3</t>
   </si>
   <si>
     <t>AD1</t>
@@ -55,13 +56,13 @@
     <t>DDS2</t>
   </si>
   <si>
-    <t>sc1(start count)</t>
-  </si>
-  <si>
-    <t>bc1(between count)</t>
-  </si>
-  <si>
-    <t>ec1(end count)</t>
+    <t>sc1</t>
+  </si>
+  <si>
+    <t>bc1</t>
+  </si>
+  <si>
+    <t>ec1</t>
   </si>
   <si>
     <t>sc2</t>
@@ -82,13 +83,7 @@
     <t>ec3</t>
   </si>
   <si>
-    <t>sc1</t>
-  </si>
-  <si>
-    <t>bc1</t>
-  </si>
-  <si>
-    <t>ec1</t>
+    <t>pattern</t>
   </si>
   <si>
     <t>f [MHz]</t>
@@ -103,35 +98,29 @@
     <t>40bit data1</t>
   </si>
   <si>
-    <t>type</t>
+    <t>pettern</t>
   </si>
   <si>
     <t>40bit data2</t>
   </si>
   <si>
-    <t>0000000100100001010101010101010101010101</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>0100000100100001010101010101010101010101</t>
+    <t>00000001101001101010101010101010101010101</t>
+  </si>
+  <si>
+    <t>01000001101001101010101010101010101010101</t>
   </si>
   <si>
     <t>0100000101100011111111111111111111111111</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>1000000101100011111111111111111111111111</t>
+    <t>10000001101011101111111111111111111111111</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -153,8 +142,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,6 +177,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,11 +242,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -288,11 +286,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,491 +618,590 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL28"/>
+  <dimension ref="A1:AK28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView zoomScale="119" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="4" max="4" width="5.7109375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" style="12" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="12" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" style="12" customWidth="1"/>
-    <col min="20" max="20" width="5.7109375" style="12" customWidth="1"/>
-    <col min="24" max="24" width="5.7109375" style="12" customWidth="1"/>
-    <col min="31" max="32" width="5.7109375" style="12" customWidth="1"/>
+    <col min="1" max="3" width="5.7109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="11" customWidth="1"/>
+    <col min="5" max="7" width="5.7109375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" style="11" customWidth="1"/>
+    <col min="9" max="11" width="5.7109375" style="11" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" style="11" customWidth="1"/>
+    <col min="13" max="15" width="5.7109375" style="11" customWidth="1"/>
+    <col min="16" max="16" width="3.28515625" style="11" customWidth="1"/>
+    <col min="17" max="19" width="5.7109375" style="11" customWidth="1"/>
+    <col min="20" max="20" width="3.28515625" style="11" customWidth="1"/>
+    <col min="21" max="23" width="5.7109375" style="11" customWidth="1"/>
+    <col min="24" max="24" width="3.28515625" style="11" customWidth="1"/>
+    <col min="25" max="26" width="5.7109375" style="11" customWidth="1"/>
+    <col min="27" max="27" width="3.28515625" style="11" customWidth="1"/>
+    <col min="28" max="31" width="5.7109375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:37">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="6" t="s">
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="5"/>
       <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-    </row>
-    <row r="2" spans="1:38">
-      <c r="A2" s="3" t="s">
+      <c r="AD1"/>
+      <c r="AE1"/>
+    </row>
+    <row r="2" spans="1:37">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="3" t="s">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3" t="s">
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3" t="s">
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="3" t="s">
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3" t="s">
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-    </row>
-    <row r="3" spans="1:38">
-      <c r="A3" s="13" t="s">
+      <c r="AC2" s="2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="8" t="s">
+      <c r="L3" s="19"/>
+      <c r="M3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="20"/>
+      <c r="U3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD3"/>
+      <c r="AE3"/>
+    </row>
+    <row r="4" spans="1:37">
+      <c r="A4" s="7">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13">
+        <v>2</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="14">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="13">
+        <v>5</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="14">
+        <v>3</v>
+      </c>
+      <c r="J4" s="7">
+        <v>2</v>
+      </c>
+      <c r="K4" s="7">
+        <v>5</v>
+      </c>
+      <c r="L4" s="19"/>
+      <c r="M4" s="7">
+        <v>10</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
+      <c r="O4" s="7">
+        <v>11</v>
+      </c>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="14">
+        <v>20</v>
+      </c>
+      <c r="R4" s="7">
+        <v>1</v>
+      </c>
+      <c r="S4" s="13">
         <v>21</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="T4" s="20"/>
+      <c r="U4" s="14">
+        <v>20</v>
+      </c>
+      <c r="V4" s="7">
+        <v>1</v>
+      </c>
+      <c r="W4" s="7">
+        <v>21</v>
+      </c>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="7">
+        <v>20</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="7">
+        <v>20</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD4"/>
+      <c r="AE4"/>
+    </row>
+    <row r="5" spans="1:37">
+      <c r="A5" s="7">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7">
+        <v>4</v>
+      </c>
+      <c r="C5" s="13">
+        <v>9</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="14">
+        <v>7</v>
+      </c>
+      <c r="F5" s="7">
+        <v>4</v>
+      </c>
+      <c r="G5" s="13">
+        <v>11</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="14">
+        <v>7</v>
+      </c>
+      <c r="J5" s="7">
+        <v>4</v>
+      </c>
+      <c r="K5" s="7">
+        <v>11</v>
+      </c>
+      <c r="L5" s="19"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="14">
+        <v>7</v>
+      </c>
+      <c r="R5" s="7">
+        <v>4</v>
+      </c>
+      <c r="S5" s="13">
+        <v>11</v>
+      </c>
+      <c r="T5" s="20"/>
+      <c r="U5" s="14">
+        <v>7</v>
+      </c>
+      <c r="V5" s="7">
+        <v>4</v>
+      </c>
+      <c r="W5" s="7">
+        <v>11</v>
+      </c>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="7">
+        <v>24</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="7">
+        <v>80</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>2</v>
+      </c>
+      <c r="AD5"/>
+      <c r="AE5"/>
+    </row>
+    <row r="6" spans="1:37">
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="4"/>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="AB7" s="10"/>
+      <c r="AJ7" s="10"/>
+    </row>
+    <row r="8" spans="1:37">
+      <c r="AB8" s="10"/>
+      <c r="AJ8" s="10"/>
+    </row>
+    <row r="9" spans="1:37">
+      <c r="AB9" s="10"/>
+      <c r="AJ9" s="10"/>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="AB10" s="10"/>
+      <c r="AJ10" s="10"/>
+    </row>
+    <row r="11" spans="1:37">
+      <c r="AB11" s="10"/>
+      <c r="AJ11" s="10"/>
+    </row>
+    <row r="12" spans="1:37">
+      <c r="AB12" s="10"/>
+      <c r="AJ12" s="10"/>
+    </row>
+    <row r="13" spans="1:37">
+      <c r="AB13" s="10"/>
+      <c r="AJ13" s="10"/>
+    </row>
+    <row r="14" spans="1:37">
+      <c r="AB14" s="10"/>
+      <c r="AJ14" s="10"/>
+    </row>
+    <row r="15" spans="1:37">
+      <c r="AB15" s="10"/>
+      <c r="AJ15" s="10"/>
+    </row>
+    <row r="16" spans="1:37">
+      <c r="AB16" s="10"/>
+      <c r="AJ16" s="10"/>
+    </row>
+    <row r="17" spans="4:36">
+      <c r="AB17" s="10"/>
+      <c r="AJ17" s="10"/>
+    </row>
+    <row r="18" spans="4:36">
+      <c r="AB18" s="10"/>
+      <c r="AJ18" s="10"/>
+    </row>
+    <row r="19" spans="4:36">
+      <c r="AB19" s="10"/>
+      <c r="AJ19" s="10"/>
+    </row>
+    <row r="28" spans="4:36">
+      <c r="D28"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="7" max="8" width="3.28515625" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="15" t="s">
+      <c r="D3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="16"/>
-      <c r="U3" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="8" t="s">
+      <c r="J3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="7">
         <v>20</v>
       </c>
-      <c r="Z3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA3" s="8" t="s">
+      <c r="B4" s="7">
+        <v>100</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="7">
+        <v>20</v>
+      </c>
+      <c r="J4" s="7">
+        <v>100</v>
+      </c>
+      <c r="K4" s="7">
+        <v>90</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="7">
         <v>24</v>
       </c>
-      <c r="AB3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL3" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38">
-      <c r="A4" s="8">
-        <v>0</v>
-      </c>
-      <c r="B4" s="8">
+      <c r="B5" s="7">
+        <v>30</v>
+      </c>
+      <c r="C5" s="7">
+        <v>90</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="14">
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="7">
+        <v>80</v>
+      </c>
+      <c r="J5" s="7">
+        <v>105</v>
+      </c>
+      <c r="K5" s="7">
+        <v>180</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="15">
-        <v>3</v>
-      </c>
-      <c r="F4" s="8">
-        <v>2</v>
-      </c>
-      <c r="G4" s="14">
-        <v>5</v>
-      </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="15">
-        <v>3</v>
-      </c>
-      <c r="J4" s="8">
-        <v>2</v>
-      </c>
-      <c r="K4" s="8">
-        <v>5</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="8">
-        <v>10</v>
-      </c>
-      <c r="N4" s="8">
-        <v>1</v>
-      </c>
-      <c r="O4" s="14">
-        <v>11</v>
-      </c>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="15">
-        <v>20</v>
-      </c>
-      <c r="R4" s="8">
-        <v>1</v>
-      </c>
-      <c r="S4" s="14">
-        <v>21</v>
-      </c>
-      <c r="T4" s="16"/>
-      <c r="U4" s="15">
-        <v>20</v>
-      </c>
-      <c r="V4" s="8">
-        <v>1</v>
-      </c>
-      <c r="W4" s="8">
-        <v>21</v>
-      </c>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="8">
-        <v>20</v>
-      </c>
-      <c r="Z4" s="8">
-        <v>10</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="8">
-        <v>20</v>
-      </c>
-      <c r="AH4" s="8">
-        <v>10</v>
-      </c>
-      <c r="AI4" s="8">
-        <v>90</v>
-      </c>
-      <c r="AJ4" s="8">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL4" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38">
-      <c r="A5" s="8">
-        <v>5</v>
-      </c>
-      <c r="B5" s="8">
-        <v>4</v>
-      </c>
-      <c r="C5" s="14">
-        <v>9</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="15">
-        <v>7</v>
-      </c>
-      <c r="F5" s="8">
-        <v>4</v>
-      </c>
-      <c r="G5" s="14">
-        <v>11</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="15">
-        <v>7</v>
-      </c>
-      <c r="J5" s="8">
-        <v>4</v>
-      </c>
-      <c r="K5" s="8">
-        <v>11</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="15">
-        <v>7</v>
-      </c>
-      <c r="R5" s="8">
-        <v>4</v>
-      </c>
-      <c r="S5" s="14">
-        <v>11</v>
-      </c>
-      <c r="T5" s="16"/>
-      <c r="U5" s="15">
-        <v>7</v>
-      </c>
-      <c r="V5" s="8">
-        <v>4</v>
-      </c>
-      <c r="W5" s="8">
-        <v>11</v>
-      </c>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="8">
-        <v>24</v>
-      </c>
-      <c r="Z5" s="8">
-        <v>30</v>
-      </c>
-      <c r="AA5" s="8">
-        <v>90</v>
-      </c>
-      <c r="AB5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="8">
-        <v>80</v>
-      </c>
-      <c r="AH5" s="8">
-        <v>30</v>
-      </c>
-      <c r="AI5" s="8">
-        <v>180</v>
-      </c>
-      <c r="AJ5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AK5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL5" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38">
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="5"/>
-    </row>
-    <row r="7" spans="1:38">
-      <c r="AC7" s="11"/>
-      <c r="AK7" s="11"/>
-    </row>
-    <row r="8" spans="1:38">
-      <c r="AC8" s="11"/>
-      <c r="AK8" s="11"/>
-    </row>
-    <row r="9" spans="1:38">
-      <c r="AC9" s="11"/>
-      <c r="AK9" s="11"/>
-    </row>
-    <row r="10" spans="1:38">
-      <c r="AC10" s="11"/>
-      <c r="AK10" s="11"/>
-    </row>
-    <row r="11" spans="1:38">
-      <c r="AC11" s="11"/>
-      <c r="AK11" s="11"/>
-    </row>
-    <row r="12" spans="1:38">
-      <c r="AC12" s="11"/>
-      <c r="AK12" s="11"/>
-    </row>
-    <row r="13" spans="1:38">
-      <c r="AC13" s="11"/>
-      <c r="AK13" s="11"/>
-    </row>
-    <row r="14" spans="1:38">
-      <c r="AC14" s="11"/>
-      <c r="AK14" s="11"/>
-    </row>
-    <row r="15" spans="1:38">
-      <c r="AC15" s="11"/>
-      <c r="AK15" s="11"/>
-    </row>
-    <row r="16" spans="1:38">
-      <c r="AC16" s="11"/>
-      <c r="AK16" s="11"/>
-    </row>
-    <row r="17" spans="4:37">
-      <c r="AC17" s="11"/>
-      <c r="AK17" s="11"/>
-    </row>
-    <row r="18" spans="4:37">
-      <c r="AC18" s="11"/>
-      <c r="AK18" s="11"/>
-    </row>
-    <row r="19" spans="4:37">
-      <c r="AC19" s="11"/>
-      <c r="AK19" s="11"/>
-    </row>
-    <row r="28" spans="4:37">
-      <c r="D28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/Pulseprogramer/ver2/pulsedata.xlsx
+++ b/Pulseprogramer/ver2/pulsedata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yokooannosuke/Cording/Pine64-python--pulse/Pulseprogramer/ver2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E2F195-E753-6248-BCB1-1289EB48B02C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D76F1D-9B69-F844-B60C-088956E09489}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,7 +242,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -289,6 +289,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -298,11 +304,11 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK28"/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -657,7 +663,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="19"/>
+      <c r="L1" s="16"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3" t="s">
         <v>1</v>
@@ -671,7 +677,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
-      <c r="X1" s="19"/>
+      <c r="X1" s="16"/>
       <c r="Y1" s="5" t="s">
         <v>2</v>
       </c>
@@ -700,7 +706,7 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="19"/>
+      <c r="L2" s="16"/>
       <c r="M2" s="2" t="s">
         <v>6</v>
       </c>
@@ -718,7 +724,7 @@
       </c>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
-      <c r="X2" s="19"/>
+      <c r="X2" s="16"/>
       <c r="Y2" s="2" t="s">
         <v>9</v>
       </c>
@@ -732,77 +738,77 @@
       <c r="AE2"/>
     </row>
     <row r="3" spans="1:37">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="18" t="s">
+      <c r="H3" s="21"/>
+      <c r="I3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="16" t="s">
+      <c r="L3" s="22"/>
+      <c r="M3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="18" t="s">
+      <c r="P3" s="21"/>
+      <c r="Q3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="17" t="s">
+      <c r="S3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="20"/>
-      <c r="U3" s="18" t="s">
+      <c r="T3" s="21"/>
+      <c r="U3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="V3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="16" t="s">
+      <c r="W3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="16" t="s">
+      <c r="X3" s="22"/>
+      <c r="Y3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="16" t="s">
+      <c r="Z3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="16" t="s">
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="AC3" s="16" t="s">
+      <c r="AC3" s="18" t="s">
         <v>20</v>
       </c>
       <c r="AD3"/>
@@ -818,7 +824,7 @@
       <c r="C4" s="13">
         <v>2</v>
       </c>
-      <c r="D4" s="20"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="14">
         <v>3</v>
       </c>
@@ -828,7 +834,7 @@
       <c r="G4" s="13">
         <v>5</v>
       </c>
-      <c r="H4" s="20"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="14">
         <v>3</v>
       </c>
@@ -838,7 +844,7 @@
       <c r="K4" s="7">
         <v>5</v>
       </c>
-      <c r="L4" s="19"/>
+      <c r="L4" s="16"/>
       <c r="M4" s="7">
         <v>10</v>
       </c>
@@ -848,7 +854,7 @@
       <c r="O4" s="7">
         <v>11</v>
       </c>
-      <c r="P4" s="20"/>
+      <c r="P4" s="17"/>
       <c r="Q4" s="14">
         <v>20</v>
       </c>
@@ -858,7 +864,7 @@
       <c r="S4" s="13">
         <v>21</v>
       </c>
-      <c r="T4" s="20"/>
+      <c r="T4" s="17"/>
       <c r="U4" s="14">
         <v>20</v>
       </c>
@@ -868,14 +874,14 @@
       <c r="W4" s="7">
         <v>21</v>
       </c>
-      <c r="X4" s="19"/>
+      <c r="X4" s="16"/>
       <c r="Y4" s="7">
         <v>20</v>
       </c>
       <c r="Z4" s="7">
         <v>1</v>
       </c>
-      <c r="AA4" s="20"/>
+      <c r="AA4" s="17"/>
       <c r="AB4" s="7">
         <v>20</v>
       </c>
@@ -895,7 +901,7 @@
       <c r="C5" s="13">
         <v>9</v>
       </c>
-      <c r="D5" s="20"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="14">
         <v>7</v>
       </c>
@@ -905,7 +911,7 @@
       <c r="G5" s="13">
         <v>11</v>
       </c>
-      <c r="H5" s="20"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="14">
         <v>7</v>
       </c>
@@ -915,11 +921,11 @@
       <c r="K5" s="7">
         <v>11</v>
       </c>
-      <c r="L5" s="19"/>
+      <c r="L5" s="16"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
-      <c r="P5" s="20"/>
+      <c r="P5" s="17"/>
       <c r="Q5" s="14">
         <v>7</v>
       </c>
@@ -929,7 +935,7 @@
       <c r="S5" s="13">
         <v>11</v>
       </c>
-      <c r="T5" s="20"/>
+      <c r="T5" s="17"/>
       <c r="U5" s="14">
         <v>7</v>
       </c>
@@ -939,14 +945,14 @@
       <c r="W5" s="7">
         <v>11</v>
       </c>
-      <c r="X5" s="19"/>
+      <c r="X5" s="16"/>
       <c r="Y5" s="7">
         <v>24</v>
       </c>
       <c r="Z5" s="7">
         <v>2</v>
       </c>
-      <c r="AA5" s="20"/>
+      <c r="AA5" s="17"/>
       <c r="AB5" s="7">
         <v>80</v>
       </c>
@@ -1036,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1102,8 +1108,8 @@
       <c r="F3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="7" t="s">
         <v>14</v>
       </c>
@@ -1125,10 +1131,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="7">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="B4" s="7">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
@@ -1142,8 +1148,8 @@
       <c r="F4" s="7">
         <v>1</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="7">
         <v>20</v>
       </c>
@@ -1165,7 +1171,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="7">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="B5" s="7">
         <v>30</v>
@@ -1182,8 +1188,8 @@
       <c r="F5" s="7">
         <v>2</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="7">
         <v>80</v>
       </c>

--- a/Pulseprogramer/ver2/pulsedata.xlsx
+++ b/Pulseprogramer/ver2/pulsedata.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yokooannosuke/Cording/Pine64-python--pulse/Pulseprogramer/ver2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NITGC-E\Desktop\Tokken\Python\Pine64-python--pulse\Pulseprogramer\ver2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D76F1D-9B69-F844-B60C-088956E09489}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -119,8 +118,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -242,7 +241,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -309,6 +308,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,33 +631,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView zoomScale="111" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="3" width="5.7109375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="11" customWidth="1"/>
-    <col min="5" max="7" width="5.7109375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" style="11" customWidth="1"/>
-    <col min="9" max="11" width="5.7109375" style="11" customWidth="1"/>
-    <col min="12" max="12" width="3.28515625" style="11" customWidth="1"/>
-    <col min="13" max="15" width="5.7109375" style="11" customWidth="1"/>
-    <col min="16" max="16" width="3.28515625" style="11" customWidth="1"/>
-    <col min="17" max="19" width="5.7109375" style="11" customWidth="1"/>
-    <col min="20" max="20" width="3.28515625" style="11" customWidth="1"/>
-    <col min="21" max="23" width="5.7109375" style="11" customWidth="1"/>
-    <col min="24" max="24" width="3.28515625" style="11" customWidth="1"/>
-    <col min="25" max="26" width="5.7109375" style="11" customWidth="1"/>
-    <col min="27" max="27" width="3.28515625" style="11" customWidth="1"/>
-    <col min="28" max="31" width="5.7109375" style="11" customWidth="1"/>
+    <col min="1" max="3" width="5.6640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" style="11" customWidth="1"/>
+    <col min="5" max="7" width="5.6640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.33203125" style="11" customWidth="1"/>
+    <col min="9" max="11" width="5.6640625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" style="11" customWidth="1"/>
+    <col min="13" max="15" width="5.6640625" style="11" customWidth="1"/>
+    <col min="16" max="16" width="3.33203125" style="11" customWidth="1"/>
+    <col min="17" max="19" width="5.6640625" style="11" customWidth="1"/>
+    <col min="20" max="20" width="3.33203125" style="11" customWidth="1"/>
+    <col min="21" max="23" width="5.6640625" style="11" customWidth="1"/>
+    <col min="24" max="24" width="3.33203125" style="11" customWidth="1"/>
+    <col min="25" max="26" width="5.6640625" style="11" customWidth="1"/>
+    <col min="27" max="27" width="3.33203125" style="11" customWidth="1"/>
+    <col min="28" max="31" width="5.6640625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -688,7 +696,7 @@
       <c r="AD1"/>
       <c r="AE1"/>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -737,7 +745,7 @@
       <c r="AD2"/>
       <c r="AE2"/>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
@@ -814,15 +822,16 @@
       <c r="AD3"/>
       <c r="AE3"/>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A4" s="7">
         <v>0</v>
       </c>
       <c r="B4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="13">
-        <v>2</v>
+        <f>$A4+$B4</f>
+        <v>1</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="14">
@@ -846,13 +855,14 @@
       </c>
       <c r="L4" s="16"/>
       <c r="M4" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
         <v>1</v>
       </c>
       <c r="O4" s="7">
-        <v>11</v>
+        <f>$M4+$N4</f>
+        <v>3</v>
       </c>
       <c r="P4" s="17"/>
       <c r="Q4" s="14">
@@ -891,15 +901,16 @@
       <c r="AD4"/>
       <c r="AE4"/>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A5" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <f>$A5+$B5</f>
         <v>4</v>
-      </c>
-      <c r="C5" s="13">
-        <v>9</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="14">
@@ -922,9 +933,16 @@
         <v>11</v>
       </c>
       <c r="L5" s="16"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
+      <c r="M5" s="7">
+        <v>4</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1</v>
+      </c>
+      <c r="O5" s="7">
+        <f t="shared" ref="O5:O14" si="0">$M5+$N5</f>
+        <v>5</v>
+      </c>
       <c r="P5" s="17"/>
       <c r="Q5" s="14">
         <v>7</v>
@@ -962,7 +980,27 @@
       <c r="AD5"/>
       <c r="AE5"/>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A6" s="24">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" ref="C6:C14" si="1">$A6+$B6</f>
+        <v>6</v>
+      </c>
+      <c r="M6" s="24">
+        <v>6</v>
+      </c>
+      <c r="N6" s="24">
+        <v>1</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
@@ -977,81 +1015,243 @@
       <c r="AJ6" s="9"/>
       <c r="AK6" s="4"/>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A7" s="24">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="M7" s="7">
+        <v>8</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="AB7" s="10"/>
       <c r="AJ7" s="10"/>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A8" s="24">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M8" s="7">
+        <v>10</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1</v>
+      </c>
+      <c r="O8" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="AB8" s="10"/>
       <c r="AJ8" s="10"/>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A9" s="25">
+        <v>11</v>
+      </c>
+      <c r="B9" s="24">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="M9" s="24">
+        <v>12</v>
+      </c>
+      <c r="N9" s="24">
+        <v>1</v>
+      </c>
+      <c r="O9" s="7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="AB9" s="10"/>
       <c r="AJ9" s="10"/>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A10" s="24">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="M10" s="7">
+        <v>14</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1</v>
+      </c>
+      <c r="O10" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="AB10" s="10"/>
       <c r="AJ10" s="10"/>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A11" s="24">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="M11" s="7">
+        <v>16</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1</v>
+      </c>
+      <c r="O11" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="AB11" s="10"/>
       <c r="AJ11" s="10"/>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A12" s="24">
+        <v>17</v>
+      </c>
+      <c r="B12" s="24">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="M12" s="24">
+        <v>18</v>
+      </c>
+      <c r="N12" s="24">
+        <v>1</v>
+      </c>
+      <c r="O12" s="7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
       <c r="AB12" s="10"/>
       <c r="AJ12" s="10"/>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A13" s="25">
+        <v>19</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M13" s="7">
+        <v>20</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1</v>
+      </c>
+      <c r="O13" s="7">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
       <c r="AB13" s="10"/>
       <c r="AJ13" s="10"/>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A14" s="24">
+        <v>21</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="M14" s="7">
+        <v>22</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1</v>
+      </c>
+      <c r="O14" s="7">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
       <c r="AB14" s="10"/>
       <c r="AJ14" s="10"/>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.4">
       <c r="AB15" s="10"/>
       <c r="AJ15" s="10"/>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.4">
       <c r="AB16" s="10"/>
       <c r="AJ16" s="10"/>
     </row>
-    <row r="17" spans="4:36">
+    <row r="17" spans="4:36" x14ac:dyDescent="0.4">
+      <c r="M17" s="23"/>
       <c r="AB17" s="10"/>
       <c r="AJ17" s="10"/>
     </row>
-    <row r="18" spans="4:36">
+    <row r="18" spans="4:36" x14ac:dyDescent="0.4">
       <c r="AB18" s="10"/>
       <c r="AJ18" s="10"/>
     </row>
-    <row r="19" spans="4:36">
+    <row r="19" spans="4:36" x14ac:dyDescent="0.4">
       <c r="AB19" s="10"/>
       <c r="AJ19" s="10"/>
     </row>
-    <row r="28" spans="4:36">
+    <row r="28" spans="4:36" x14ac:dyDescent="0.4">
       <c r="D28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="8" width="3.28515625" style="11" customWidth="1"/>
+    <col min="7" max="8" width="3.33203125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1069,7 +1269,7 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1089,7 +1289,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -1129,7 +1329,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="7">
         <v>100</v>
       </c>
@@ -1169,7 +1369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="7">
         <v>200</v>
       </c>

--- a/Pulseprogramer/ver2/pulsedata.xlsx
+++ b/Pulseprogramer/ver2/pulsedata.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NITGC-E\Desktop\Tokken\Python\Pine64-python--pulse\Pulseprogramer\ver2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yokooannosuke/Cording/Pine64-python--pulse/Pulseprogramer/ver2/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A56EB46-BCF6-3048-86C5-4824DE51E128}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="13880" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>PLパラメータ</t>
   </si>
@@ -107,9 +118,6 @@
   </si>
   <si>
     <t>01000001101001101010101010101010101010101</t>
-  </si>
-  <si>
-    <t>0100000101100011111111111111111111111111</t>
   </si>
   <si>
     <t>10000001101011101111111111111111111111111</t>
@@ -118,8 +126,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -241,7 +249,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -313,9 +321,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -631,33 +636,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK28"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="3" width="5.6640625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="3.33203125" style="11" customWidth="1"/>
-    <col min="5" max="7" width="5.6640625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="3.33203125" style="11" customWidth="1"/>
-    <col min="9" max="11" width="5.6640625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" style="11" customWidth="1"/>
-    <col min="13" max="15" width="5.6640625" style="11" customWidth="1"/>
-    <col min="16" max="16" width="3.33203125" style="11" customWidth="1"/>
-    <col min="17" max="19" width="5.6640625" style="11" customWidth="1"/>
-    <col min="20" max="20" width="3.33203125" style="11" customWidth="1"/>
-    <col min="21" max="23" width="5.6640625" style="11" customWidth="1"/>
-    <col min="24" max="24" width="3.33203125" style="11" customWidth="1"/>
-    <col min="25" max="26" width="5.6640625" style="11" customWidth="1"/>
-    <col min="27" max="27" width="3.33203125" style="11" customWidth="1"/>
-    <col min="28" max="31" width="5.6640625" style="11" customWidth="1"/>
+    <col min="1" max="3" width="5.7109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="11" customWidth="1"/>
+    <col min="5" max="7" width="5.7109375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" style="11" customWidth="1"/>
+    <col min="9" max="11" width="5.7109375" style="11" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" style="11" customWidth="1"/>
+    <col min="13" max="15" width="5.7109375" style="11" customWidth="1"/>
+    <col min="16" max="16" width="3.28515625" style="11" customWidth="1"/>
+    <col min="17" max="19" width="5.7109375" style="11" customWidth="1"/>
+    <col min="20" max="20" width="3.28515625" style="11" customWidth="1"/>
+    <col min="21" max="23" width="5.7109375" style="11" customWidth="1"/>
+    <col min="24" max="24" width="3.28515625" style="11" customWidth="1"/>
+    <col min="25" max="26" width="5.7109375" style="11" customWidth="1"/>
+    <col min="27" max="27" width="3.28515625" style="11" customWidth="1"/>
+    <col min="28" max="31" width="5.7109375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:37">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -696,7 +701,7 @@
       <c r="AD1"/>
       <c r="AE1"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:37">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -745,7 +750,7 @@
       <c r="AD2"/>
       <c r="AE2"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:37">
       <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
@@ -822,7 +827,7 @@
       <c r="AD3"/>
       <c r="AE3"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:37">
       <c r="A4" s="7">
         <v>0</v>
       </c>
@@ -901,16 +906,15 @@
       <c r="AD4"/>
       <c r="AE4"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:37">
       <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
         <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="13">
-        <f>$A5+$B5</f>
-        <v>4</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="14">
@@ -980,18 +984,17 @@
       <c r="AD5"/>
       <c r="AE5"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:37">
       <c r="A6" s="24">
+        <v>4</v>
+      </c>
+      <c r="B6" s="24">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="24">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7">
-        <f t="shared" ref="C6:C14" si="1">$A6+$B6</f>
-        <v>6</v>
-      </c>
-      <c r="M6" s="24">
+      <c r="M6" s="7">
         <v>6</v>
       </c>
       <c r="N6" s="24">
@@ -1015,16 +1018,16 @@
       <c r="AJ6" s="9"/>
       <c r="AK6" s="4"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A7" s="24">
+    <row r="7" spans="1:37">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13">
+        <f t="shared" ref="C7:C14" si="1">$A7+$B7</f>
         <v>7</v>
-      </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7">
-        <f t="shared" si="1"/>
-        <v>8</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -1039,16 +1042,15 @@
       <c r="AB7" s="10"/>
       <c r="AJ7" s="10"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A8" s="24">
-        <v>9</v>
+    <row r="8" spans="1:37">
+      <c r="A8" s="7">
+        <v>8</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
       </c>
-      <c r="C8" s="7">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="C8" s="13">
+        <v>7</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -1063,18 +1065,17 @@
       <c r="AB8" s="10"/>
       <c r="AJ8" s="10"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A9" s="25">
-        <v>11</v>
+    <row r="9" spans="1:37">
+      <c r="A9" s="24">
+        <v>10</v>
       </c>
       <c r="B9" s="24">
         <v>1</v>
       </c>
       <c r="C9" s="7">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="M9" s="24">
+        <v>9</v>
+      </c>
+      <c r="M9" s="7">
         <v>12</v>
       </c>
       <c r="N9" s="24">
@@ -1087,16 +1088,16 @@
       <c r="AB9" s="10"/>
       <c r="AJ9" s="10"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A10" s="24">
+    <row r="10" spans="1:37">
+      <c r="A10" s="7">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13">
+        <f t="shared" ref="C10:C14" si="2">$A10+$B10</f>
         <v>13</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7">
-        <f t="shared" si="1"/>
-        <v>14</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -1111,16 +1112,15 @@
       <c r="AB10" s="10"/>
       <c r="AJ10" s="10"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A11" s="24">
-        <v>15</v>
+    <row r="11" spans="1:37">
+      <c r="A11" s="7">
+        <v>14</v>
       </c>
       <c r="B11" s="7">
         <v>1</v>
       </c>
-      <c r="C11" s="7">
-        <f t="shared" si="1"/>
-        <v>16</v>
+      <c r="C11" s="13">
+        <v>11</v>
       </c>
       <c r="M11" s="7">
         <v>16</v>
@@ -1135,18 +1135,17 @@
       <c r="AB11" s="10"/>
       <c r="AJ11" s="10"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:37">
       <c r="A12" s="24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="24">
         <v>1</v>
       </c>
       <c r="C12" s="7">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="M12" s="24">
+        <v>13</v>
+      </c>
+      <c r="M12" s="7">
         <v>18</v>
       </c>
       <c r="N12" s="24">
@@ -1159,16 +1158,16 @@
       <c r="AB12" s="10"/>
       <c r="AJ12" s="10"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A13" s="25">
+    <row r="13" spans="1:37">
+      <c r="A13" s="7">
+        <v>18</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13">
+        <f t="shared" ref="C13:C14" si="3">$A13+$B13</f>
         <v>19</v>
-      </c>
-      <c r="B13" s="7">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7">
-        <f t="shared" si="1"/>
-        <v>20</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -1183,16 +1182,15 @@
       <c r="AB13" s="10"/>
       <c r="AJ13" s="10"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A14" s="24">
-        <v>21</v>
+    <row r="14" spans="1:37">
+      <c r="A14" s="7">
+        <v>20</v>
       </c>
       <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="7">
-        <f t="shared" si="1"/>
-        <v>22</v>
+      <c r="C14" s="13">
+        <v>15</v>
       </c>
       <c r="M14" s="7">
         <v>22</v>
@@ -1207,28 +1205,28 @@
       <c r="AB14" s="10"/>
       <c r="AJ14" s="10"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:37">
       <c r="AB15" s="10"/>
       <c r="AJ15" s="10"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:37">
       <c r="AB16" s="10"/>
       <c r="AJ16" s="10"/>
     </row>
-    <row r="17" spans="4:36" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:36">
       <c r="M17" s="23"/>
       <c r="AB17" s="10"/>
       <c r="AJ17" s="10"/>
     </row>
-    <row r="18" spans="4:36" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:36">
       <c r="AB18" s="10"/>
       <c r="AJ18" s="10"/>
     </row>
-    <row r="19" spans="4:36" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:36">
       <c r="AB19" s="10"/>
       <c r="AJ19" s="10"/>
     </row>
-    <row r="28" spans="4:36" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:36">
       <c r="D28"/>
     </row>
   </sheetData>
@@ -1239,19 +1237,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
   <cols>
-    <col min="7" max="8" width="3.33203125" style="11" customWidth="1"/>
+    <col min="7" max="8" width="3.28515625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1269,7 +1267,7 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1289,7 +1287,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -1329,7 +1327,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14">
       <c r="A4" s="7">
         <v>100</v>
       </c>
@@ -1369,25 +1367,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="7">
-        <v>200</v>
-      </c>
-      <c r="B5" s="7">
-        <v>30</v>
-      </c>
-      <c r="C5" s="7">
-        <v>90</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="7">
-        <v>2</v>
-      </c>
+    <row r="5" spans="1:14">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
       <c r="I5" s="7">
@@ -1403,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N5" s="7">
         <v>2</v>

--- a/Pulseprogramer/ver2/pulsedata.xlsx
+++ b/Pulseprogramer/ver2/pulsedata.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yokooannosuke/Cording/Pine64-python--pulse/Pulseprogramer/ver2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A56EB46-BCF6-3048-86C5-4824DE51E128}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61268C9-C8D9-5F4D-A85C-F051DF23E892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="13880" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Pulseパラメータ" sheetId="1" r:id="rId1"/>
+    <sheet name="DDSパラメータ" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -114,13 +114,14 @@
     <t>40bit data2</t>
   </si>
   <si>
+    <t>01000001101001101010101010101010101010101</t>
+  </si>
+  <si>
+    <t>10000001101011101111111111111111111111111</t>
+  </si>
+  <si>
     <t>00000001101001101010101010101010101010101</t>
-  </si>
-  <si>
-    <t>01000001101001101010101010101010101010101</t>
-  </si>
-  <si>
-    <t>10000001101011101111111111111111111111111</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -194,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -243,13 +244,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -322,6 +343,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,7 +667,7 @@
   <dimension ref="A1:AK28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
@@ -846,6 +873,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="13">
+        <f>$E4+$F4</f>
         <v>5</v>
       </c>
       <c r="H4" s="17"/>
@@ -856,6 +884,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="7">
+        <f>$I4+$J4</f>
         <v>5</v>
       </c>
       <c r="L4" s="16"/>
@@ -877,6 +906,7 @@
         <v>1</v>
       </c>
       <c r="S4" s="13">
+        <f>$Q4+$R4</f>
         <v>21</v>
       </c>
       <c r="T4" s="17"/>
@@ -887,20 +917,25 @@
         <v>1</v>
       </c>
       <c r="W4" s="7">
+        <f>$U4+$V4</f>
         <v>21</v>
       </c>
       <c r="X4" s="16"/>
       <c r="Y4" s="7">
-        <v>20</v>
+        <f>DDSパラメータ!A4</f>
+        <v>40</v>
       </c>
       <c r="Z4" s="7">
+        <f>DDSパラメータ!F4</f>
         <v>1</v>
       </c>
       <c r="AA4" s="17"/>
       <c r="AB4" s="7">
+        <f>DDSパラメータ!I4</f>
         <v>20</v>
       </c>
       <c r="AC4" s="7">
+        <f>DDSパラメータ!N4</f>
         <v>1</v>
       </c>
       <c r="AD4"/>
@@ -914,6 +949,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="13">
+        <f t="shared" ref="C5:C20" si="0">$A5+$B5</f>
         <v>3</v>
       </c>
       <c r="D5" s="17"/>
@@ -924,6 +960,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="13">
+        <f>$E5+$F5</f>
         <v>11</v>
       </c>
       <c r="H5" s="17"/>
@@ -934,6 +971,7 @@
         <v>4</v>
       </c>
       <c r="K5" s="7">
+        <f>$I5+$J5</f>
         <v>11</v>
       </c>
       <c r="L5" s="16"/>
@@ -944,7 +982,7 @@
         <v>1</v>
       </c>
       <c r="O5" s="7">
-        <f t="shared" ref="O5:O14" si="0">$M5+$N5</f>
+        <f t="shared" ref="O5:O16" si="1">$M5+$N5</f>
         <v>5</v>
       </c>
       <c r="P5" s="17"/>
@@ -955,6 +993,7 @@
         <v>4</v>
       </c>
       <c r="S5" s="13">
+        <f>$Q5+$R5</f>
         <v>11</v>
       </c>
       <c r="T5" s="17"/>
@@ -965,20 +1004,25 @@
         <v>4</v>
       </c>
       <c r="W5" s="7">
+        <f>$U5+$V5</f>
         <v>11</v>
       </c>
       <c r="X5" s="16"/>
       <c r="Y5" s="7">
-        <v>24</v>
+        <f>DDSパラメータ!A5</f>
+        <v>0</v>
       </c>
       <c r="Z5" s="7">
-        <v>2</v>
+        <f>DDSパラメータ!F5</f>
+        <v>0</v>
       </c>
       <c r="AA5" s="17"/>
       <c r="AB5" s="7">
+        <f>DDSパラメータ!I5</f>
         <v>80</v>
       </c>
       <c r="AC5" s="7">
+        <f>DDSパラメータ!N5</f>
         <v>2</v>
       </c>
       <c r="AD5"/>
@@ -991,7 +1035,8 @@
       <c r="B6" s="24">
         <v>1</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="13">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="M6" s="7">
@@ -1001,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="Y6" s="4"/>
@@ -1026,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="13">
-        <f t="shared" ref="C7:C14" si="1">$A7+$B7</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="M7" s="7">
@@ -1036,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="AB7" s="10"/>
@@ -1050,7 +1095,8 @@
         <v>1</v>
       </c>
       <c r="C8" s="13">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -1059,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="AB8" s="10"/>
@@ -1072,8 +1118,9 @@
       <c r="B9" s="24">
         <v>1</v>
       </c>
-      <c r="C9" s="7">
-        <v>9</v>
+      <c r="C9" s="13">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -1082,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="AB9" s="10"/>
@@ -1096,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="13">
-        <f t="shared" ref="C10:C14" si="2">$A10+$B10</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="M10" s="7">
@@ -1106,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="O10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="AB10" s="10"/>
@@ -1120,7 +1167,8 @@
         <v>1</v>
       </c>
       <c r="C11" s="13">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="M11" s="7">
         <v>16</v>
@@ -1129,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="O11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="AB11" s="10"/>
@@ -1142,8 +1190,9 @@
       <c r="B12" s="24">
         <v>1</v>
       </c>
-      <c r="C12" s="7">
-        <v>13</v>
+      <c r="C12" s="13">
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="M12" s="7">
         <v>18</v>
@@ -1152,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="O12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="AB12" s="10"/>
@@ -1166,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="13">
-        <f t="shared" ref="C13:C14" si="3">$A13+$B13</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="M13" s="7">
@@ -1176,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="O13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="AB13" s="10"/>
@@ -1190,7 +1239,8 @@
         <v>1</v>
       </c>
       <c r="C14" s="13">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
         <v>22</v>
@@ -1199,34 +1249,116 @@
         <v>1</v>
       </c>
       <c r="O14" s="7">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="AB14" s="10"/>
+      <c r="AJ14" s="10"/>
+    </row>
+    <row r="15" spans="1:37">
+      <c r="A15" s="24">
+        <v>22</v>
+      </c>
+      <c r="B15" s="25">
+        <v>1</v>
+      </c>
+      <c r="C15" s="26">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="AB14" s="10"/>
-      <c r="AJ14" s="10"/>
-    </row>
-    <row r="15" spans="1:37">
+      <c r="M15" s="7">
+        <v>24</v>
+      </c>
+      <c r="N15" s="25">
+        <v>1</v>
+      </c>
+      <c r="O15" s="25">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
       <c r="AB15" s="10"/>
       <c r="AJ15" s="10"/>
     </row>
     <row r="16" spans="1:37">
+      <c r="A16" s="7">
+        <v>24</v>
+      </c>
+      <c r="B16" s="25">
+        <v>1</v>
+      </c>
+      <c r="C16" s="26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="M16" s="7">
+        <v>26</v>
+      </c>
+      <c r="N16" s="25">
+        <v>1</v>
+      </c>
+      <c r="O16" s="25">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
       <c r="AB16" s="10"/>
       <c r="AJ16" s="10"/>
     </row>
-    <row r="17" spans="4:36">
+    <row r="17" spans="1:36">
+      <c r="A17" s="24">
+        <v>26</v>
+      </c>
+      <c r="B17" s="25">
+        <v>1</v>
+      </c>
+      <c r="C17" s="26">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
       <c r="M17" s="23"/>
       <c r="AB17" s="10"/>
       <c r="AJ17" s="10"/>
     </row>
-    <row r="18" spans="4:36">
+    <row r="18" spans="1:36">
+      <c r="A18" s="7">
+        <v>28</v>
+      </c>
+      <c r="B18" s="25">
+        <v>1</v>
+      </c>
+      <c r="C18" s="26">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
       <c r="AB18" s="10"/>
       <c r="AJ18" s="10"/>
     </row>
-    <row r="19" spans="4:36">
+    <row r="19" spans="1:36">
+      <c r="A19" s="24">
+        <v>30</v>
+      </c>
+      <c r="B19" s="25">
+        <v>1</v>
+      </c>
+      <c r="C19" s="26">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
       <c r="AB19" s="10"/>
       <c r="AJ19" s="10"/>
     </row>
-    <row r="28" spans="4:36">
+    <row r="20" spans="1:36">
+      <c r="A20" s="7">
+        <v>32</v>
+      </c>
+      <c r="B20" s="25">
+        <v>1</v>
+      </c>
+      <c r="C20" s="26">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36">
       <c r="D28"/>
     </row>
   </sheetData>
@@ -1241,7 +1373,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
@@ -1329,7 +1461,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="7">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="B4" s="7">
         <v>10</v>
@@ -1341,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F4" s="7">
         <v>1</v>
@@ -1361,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N4" s="7">
         <v>1</v>
@@ -1389,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N5" s="7">
         <v>2</v>
@@ -1398,5 +1530,6 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Pulseprogramer/ver2/pulsedata.xlsx
+++ b/Pulseprogramer/ver2/pulsedata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28800" yWindow="460" windowWidth="19200" windowHeight="21140" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28800" yWindow="460" windowWidth="19500" windowHeight="21140" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pulseパラメータ" sheetId="1" state="visible" r:id="rId1"/>
@@ -159,7 +159,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -205,12 +205,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -618,7 +612,7 @@
   </sheetPr>
   <dimension ref="A1:AK28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+    <sheetView zoomScale="111" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -657,7 +651,7 @@
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="n"/>
       <c r="K1" s="1" t="n"/>
-      <c r="L1" s="22" t="n"/>
+      <c r="L1" s="20" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="inlineStr">
         <is>
@@ -673,7 +667,7 @@
       <c r="U1" s="3" t="n"/>
       <c r="V1" s="3" t="n"/>
       <c r="W1" s="3" t="n"/>
-      <c r="X1" s="22" t="n"/>
+      <c r="X1" s="20" t="n"/>
       <c r="Y1" s="5" t="inlineStr">
         <is>
           <t>DDSパラメータ</t>
@@ -710,7 +704,7 @@
       </c>
       <c r="J2" s="2" t="n"/>
       <c r="K2" s="2" t="n"/>
-      <c r="L2" s="22" t="n"/>
+      <c r="L2" s="20" t="n"/>
       <c r="M2" s="2" t="inlineStr">
         <is>
           <t>AD1</t>
@@ -734,7 +728,7 @@
       </c>
       <c r="V2" s="2" t="n"/>
       <c r="W2" s="2" t="n"/>
-      <c r="X2" s="22" t="n"/>
+      <c r="X2" s="20" t="n"/>
       <c r="Y2" s="2" t="inlineStr">
         <is>
           <t>DDS1</t>
@@ -752,119 +746,119 @@
       <c r="AE2" s="0" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="inlineStr">
+      <c r="A3" s="16" t="inlineStr">
         <is>
           <t>sc1</t>
         </is>
       </c>
-      <c r="B3" s="18" t="inlineStr">
+      <c r="B3" s="16" t="inlineStr">
         <is>
           <t>bc1</t>
         </is>
       </c>
-      <c r="C3" s="19" t="inlineStr">
+      <c r="C3" s="17" t="inlineStr">
         <is>
           <t>ec1</t>
         </is>
       </c>
-      <c r="D3" s="21" t="n"/>
-      <c r="E3" s="20" t="inlineStr">
+      <c r="D3" s="19" t="n"/>
+      <c r="E3" s="18" t="inlineStr">
         <is>
           <t>sc2</t>
         </is>
       </c>
-      <c r="F3" s="18" t="inlineStr">
+      <c r="F3" s="16" t="inlineStr">
         <is>
           <t>bc2</t>
         </is>
       </c>
-      <c r="G3" s="19" t="inlineStr">
+      <c r="G3" s="17" t="inlineStr">
         <is>
           <t>ec2</t>
         </is>
       </c>
-      <c r="H3" s="21" t="n"/>
-      <c r="I3" s="20" t="inlineStr">
+      <c r="H3" s="19" t="n"/>
+      <c r="I3" s="18" t="inlineStr">
         <is>
           <t>sc3</t>
         </is>
       </c>
-      <c r="J3" s="18" t="inlineStr">
+      <c r="J3" s="16" t="inlineStr">
         <is>
           <t>bc3</t>
         </is>
       </c>
-      <c r="K3" s="18" t="inlineStr">
+      <c r="K3" s="16" t="inlineStr">
         <is>
           <t>ec3</t>
         </is>
       </c>
-      <c r="L3" s="22" t="n"/>
-      <c r="M3" s="18" t="inlineStr">
+      <c r="L3" s="20" t="n"/>
+      <c r="M3" s="16" t="inlineStr">
         <is>
           <t>sc1</t>
         </is>
       </c>
-      <c r="N3" s="18" t="inlineStr">
+      <c r="N3" s="16" t="inlineStr">
         <is>
           <t>bc1</t>
         </is>
       </c>
-      <c r="O3" s="18" t="inlineStr">
+      <c r="O3" s="16" t="inlineStr">
         <is>
           <t>ec1</t>
         </is>
       </c>
-      <c r="P3" s="21" t="n"/>
-      <c r="Q3" s="20" t="inlineStr">
+      <c r="P3" s="19" t="n"/>
+      <c r="Q3" s="18" t="inlineStr">
         <is>
           <t>sc2</t>
         </is>
       </c>
-      <c r="R3" s="18" t="inlineStr">
+      <c r="R3" s="16" t="inlineStr">
         <is>
           <t>bc2</t>
         </is>
       </c>
-      <c r="S3" s="19" t="inlineStr">
+      <c r="S3" s="17" t="inlineStr">
         <is>
           <t>ec2</t>
         </is>
       </c>
-      <c r="T3" s="21" t="n"/>
-      <c r="U3" s="20" t="inlineStr">
+      <c r="T3" s="19" t="n"/>
+      <c r="U3" s="18" t="inlineStr">
         <is>
           <t>sc3</t>
         </is>
       </c>
-      <c r="V3" s="18" t="inlineStr">
+      <c r="V3" s="16" t="inlineStr">
         <is>
           <t>bc3</t>
         </is>
       </c>
-      <c r="W3" s="18" t="inlineStr">
+      <c r="W3" s="16" t="inlineStr">
         <is>
           <t>ec3</t>
         </is>
       </c>
-      <c r="X3" s="22" t="n"/>
-      <c r="Y3" s="18" t="inlineStr">
+      <c r="X3" s="20" t="n"/>
+      <c r="Y3" s="16" t="inlineStr">
         <is>
           <t>sc1</t>
         </is>
       </c>
-      <c r="Z3" s="18" t="inlineStr">
+      <c r="Z3" s="16" t="inlineStr">
         <is>
           <t>pattern</t>
         </is>
       </c>
-      <c r="AA3" s="21" t="n"/>
-      <c r="AB3" s="18" t="inlineStr">
+      <c r="AA3" s="19" t="n"/>
+      <c r="AB3" s="16" t="inlineStr">
         <is>
           <t>sc2</t>
         </is>
       </c>
-      <c r="AC3" s="18" t="inlineStr">
+      <c r="AC3" s="16" t="inlineStr">
         <is>
           <t>pattern</t>
         </is>
@@ -883,7 +877,7 @@
         <f>$A4+$B4</f>
         <v/>
       </c>
-      <c r="D4" s="21" t="n"/>
+      <c r="D4" s="19" t="n"/>
       <c r="E4" s="14" t="n">
         <v>3</v>
       </c>
@@ -894,7 +888,7 @@
         <f>$E4+$F4</f>
         <v/>
       </c>
-      <c r="H4" s="21" t="n"/>
+      <c r="H4" s="19" t="n"/>
       <c r="I4" s="14" t="n">
         <v>3</v>
       </c>
@@ -905,7 +899,7 @@
         <f>$I4+$J4</f>
         <v/>
       </c>
-      <c r="L4" s="22" t="n"/>
+      <c r="L4" s="20" t="n"/>
       <c r="M4" s="7" t="n">
         <v>2</v>
       </c>
@@ -916,7 +910,7 @@
         <f>$M4+$N4</f>
         <v/>
       </c>
-      <c r="P4" s="21" t="n"/>
+      <c r="P4" s="19" t="n"/>
       <c r="Q4" s="14" t="n">
         <v>20</v>
       </c>
@@ -927,7 +921,7 @@
         <f>$Q4+$R4</f>
         <v/>
       </c>
-      <c r="T4" s="21" t="n"/>
+      <c r="T4" s="19" t="n"/>
       <c r="U4" s="14" t="n">
         <v>20</v>
       </c>
@@ -938,7 +932,7 @@
         <f>$U4+$V4</f>
         <v/>
       </c>
-      <c r="X4" s="22" t="n"/>
+      <c r="X4" s="20" t="n"/>
       <c r="Y4" s="7">
         <f>DDSパラメータ!A4</f>
         <v/>
@@ -947,7 +941,7 @@
         <f>DDSパラメータ!F4</f>
         <v/>
       </c>
-      <c r="AA4" s="21" t="n"/>
+      <c r="AA4" s="19" t="n"/>
       <c r="AB4" s="7">
         <f>DDSパラメータ!I4</f>
         <v/>
@@ -970,7 +964,7 @@
         <f>$A5+$B5</f>
         <v/>
       </c>
-      <c r="D5" s="21" t="n"/>
+      <c r="D5" s="19" t="n"/>
       <c r="E5" s="14" t="n">
         <v>7</v>
       </c>
@@ -981,7 +975,7 @@
         <f>$E5+$F5</f>
         <v/>
       </c>
-      <c r="H5" s="21" t="n"/>
+      <c r="H5" s="19" t="n"/>
       <c r="I5" s="14" t="n">
         <v>7</v>
       </c>
@@ -992,7 +986,7 @@
         <f>$I5+$J5</f>
         <v/>
       </c>
-      <c r="L5" s="22" t="n"/>
+      <c r="L5" s="20" t="n"/>
       <c r="M5" s="7" t="n">
         <v>4</v>
       </c>
@@ -1003,7 +997,7 @@
         <f>$M5+$N5</f>
         <v/>
       </c>
-      <c r="P5" s="21" t="n"/>
+      <c r="P5" s="19" t="n"/>
       <c r="Q5" s="14" t="n">
         <v>7</v>
       </c>
@@ -1014,7 +1008,7 @@
         <f>$Q5+$R5</f>
         <v/>
       </c>
-      <c r="T5" s="21" t="n"/>
+      <c r="T5" s="19" t="n"/>
       <c r="U5" s="14" t="n">
         <v>7</v>
       </c>
@@ -1025,7 +1019,7 @@
         <f>$U5+$V5</f>
         <v/>
       </c>
-      <c r="X5" s="22" t="n"/>
+      <c r="X5" s="20" t="n"/>
       <c r="Y5" s="7">
         <f>DDSパラメータ!A5</f>
         <v/>
@@ -1034,7 +1028,7 @@
         <f>DDSパラメータ!F5</f>
         <v/>
       </c>
-      <c r="AA5" s="21" t="n"/>
+      <c r="AA5" s="19" t="n"/>
       <c r="AB5" s="7">
         <f>DDSパラメータ!I5</f>
         <v/>
@@ -1047,10 +1041,10 @@
       <c r="AE5" s="0" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="24" t="n">
+      <c r="A6" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="24" t="n">
+      <c r="B6" s="22" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="13">
@@ -1060,7 +1054,7 @@
       <c r="M6" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="N6" s="24" t="n">
+      <c r="N6" s="22" t="n">
         <v>1</v>
       </c>
       <c r="O6" s="7">
@@ -1130,10 +1124,10 @@
       <c r="AJ8" s="10" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="24" t="n">
+      <c r="A9" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="B9" s="24" t="n">
+      <c r="B9" s="22" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="13">
@@ -1143,7 +1137,7 @@
       <c r="M9" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="N9" s="24" t="n">
+      <c r="N9" s="22" t="n">
         <v>1</v>
       </c>
       <c r="O9" s="7">
@@ -1202,10 +1196,10 @@
       <c r="AJ11" s="10" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="24" t="n">
+      <c r="A12" s="22" t="n">
         <v>16</v>
       </c>
-      <c r="B12" s="24" t="n">
+      <c r="B12" s="22" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="13">
@@ -1215,7 +1209,7 @@
       <c r="M12" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="N12" s="24" t="n">
+      <c r="N12" s="22" t="n">
         <v>1</v>
       </c>
       <c r="O12" s="7">
@@ -1274,23 +1268,23 @@
       <c r="AJ14" s="10" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="24" t="n">
+      <c r="A15" s="22" t="n">
         <v>22</v>
       </c>
-      <c r="B15" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="26">
+      <c r="B15" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="24">
         <f>$A15+$B15</f>
         <v/>
       </c>
       <c r="M15" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="N15" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="25">
+      <c r="N15" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="23">
         <f>$M15+$N15</f>
         <v/>
       </c>
@@ -1301,20 +1295,20 @@
       <c r="A16" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="B16" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="26">
+      <c r="B16" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="24">
         <f>$A16+$B16</f>
         <v/>
       </c>
       <c r="M16" s="7" t="n">
         <v>26</v>
       </c>
-      <c r="N16" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="25">
+      <c r="N16" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="23">
         <f>$M16+$N16</f>
         <v/>
       </c>
@@ -1322,17 +1316,17 @@
       <c r="AJ16" s="10" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="24" t="n">
+      <c r="A17" s="22" t="n">
         <v>26</v>
       </c>
-      <c r="B17" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="26">
+      <c r="B17" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="24">
         <f>$A17+$B17</f>
         <v/>
       </c>
-      <c r="M17" s="23" t="n"/>
+      <c r="M17" s="21" t="n"/>
       <c r="AB17" s="10" t="n"/>
       <c r="AJ17" s="10" t="n"/>
     </row>
@@ -1340,10 +1334,10 @@
       <c r="A18" s="7" t="n">
         <v>28</v>
       </c>
-      <c r="B18" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="26">
+      <c r="B18" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="24">
         <f>$A18+$B18</f>
         <v/>
       </c>
@@ -1351,13 +1345,13 @@
       <c r="AJ18" s="10" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="24" t="n">
+      <c r="A19" s="22" t="n">
         <v>30</v>
       </c>
-      <c r="B19" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="26">
+      <c r="B19" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="24">
         <f>$A19+$B19</f>
         <v/>
       </c>
@@ -1368,10 +1362,10 @@
       <c r="A20" s="7" t="n">
         <v>32</v>
       </c>
-      <c r="B20" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="26">
+      <c r="B20" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="24">
         <f>$A20+$B20</f>
         <v/>
       </c>
@@ -1393,8 +1387,8 @@
   </sheetPr>
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
@@ -1477,8 +1471,8 @@
           <t>pettern</t>
         </is>
       </c>
-      <c r="G3" s="21" t="n"/>
-      <c r="H3" s="21" t="n"/>
+      <c r="G3" s="19" t="n"/>
+      <c r="H3" s="19" t="n"/>
       <c r="I3" s="7" t="inlineStr">
         <is>
           <t>sc2</t>
@@ -1531,8 +1525,8 @@
       <c r="F4" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="21" t="n"/>
-      <c r="H4" s="21" t="n"/>
+      <c r="G4" s="19" t="n"/>
+      <c r="H4" s="19" t="n"/>
       <c r="I4" s="7" t="n">
         <v>20</v>
       </c>
@@ -1555,18 +1549,26 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="n"/>
-      <c r="B5" s="7" t="n"/>
-      <c r="C5" s="7" t="n"/>
-      <c r="D5" s="7" t="n"/>
+      <c r="A5" s="7" t="n">
+        <v>50</v>
+      </c>
+      <c r="B5" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="E5" s="8" t="inlineStr">
         <is>
-          <t>0100000100100001010101010101010101010101</t>
+          <t>0000000100100001010101010101010101010101</t>
         </is>
       </c>
       <c r="F5" s="7" t="n"/>
-      <c r="G5" s="21" t="n"/>
-      <c r="H5" s="21" t="n"/>
+      <c r="G5" s="19" t="n"/>
+      <c r="H5" s="19" t="n"/>
       <c r="I5" s="7" t="n">
         <v>80</v>
       </c>
